--- a/data/long_razon/P16-Estudios-long_razon.xlsx
+++ b/data/long_razon/P16-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>206,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>139,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>136,26%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 46,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-48,18; 57,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 11,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 68,68</t>
+          <t>68,32; 449,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 75,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,09; 284,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 39,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 39,02</t>
+          <t>13,36; 190,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 74,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62,62; 266,8</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 98,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 13,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 74,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 28,39</t>
+          <t>-13,4; 71,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 99,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 64,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 44,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 36,05</t>
+          <t>2,8; 71,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 60,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 56,88</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>107,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 68,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 51,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 112,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 21,26</t>
+          <t>-12,94; 84,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 186,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 67,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 29,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,71; 88,98</t>
+          <t>3,11; 80,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 69,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 63,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 50,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 15,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 47,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 17,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,44; 85,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 77,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 26,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 38,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,67; 52,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48,54%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43,99%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 99,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 73,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24,38; 72,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P16-Estudios-long_razon.xlsx
+++ b/data/long_razon/P16-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>206,14%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>86,06%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>136,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.2617060673779867</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.05986907693457938</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2753398117019485</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.159775743705467</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3146690711985856</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1456807239368721</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.8972442628195302</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.843100268793859</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2906252724764267</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.04376189266832189</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.1257397211218</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.372060273939473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>68,32; 449,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>13,36; 190,69</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>62,62; 266,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.4015859327434822</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.54597986728898</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5095153948863578</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.7216528352135179</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2435215868485028</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2959445350085224</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.2555564371202514</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.1043599529086124</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1649151052660363</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.3427339102662283</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1357163422224222</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.6044415549330254</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.468589821848445</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6208585109349546</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1135093456710543</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.769271265455561</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.373294208756897</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.912985361254194</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.053080016763184</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.936171484060701</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.063761741592729</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5056330212123901</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.4997385814609959</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>2.658627866947469</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,12%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,79%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>25,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,4; 71,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 71,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 56,88</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1956985451347359</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1029909961309264</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.323251369134714</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.1759661133107872</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.0005118976865516363</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.7307156438930905</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3542984416729711</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.3229966018873095</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.08657813588964278</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2349627159071797</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.3386423202107994</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2431423709768946</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,49%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,97%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>32,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.2446670866167935</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3831052396683151</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.03827924519300654</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1437467144934948</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2752975046349239</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.206406677900023</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.0656439648224232</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.02628204079732233</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2016126293351642</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.0356796647982087</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.09713718309117481</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.008002491122835723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,94; 84,41</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 80,32</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 63,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.8039501710887743</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2492692759246355</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.735750888792133</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6966857934637499</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3855488027629844</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.43289228120532</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.7243165183152861</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.7037322638277332</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3913303700060284</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.5715231653902494</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.6105968143842687</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.551530005282675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1451206132211315</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2891501616668311</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4909819706103578</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2005738380959341</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1638009063843695</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.087513845957865</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.2897073790433209</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3837473927150737</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.02491431927750696</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.6500008413753098</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.3737275213338413</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.3049669992460431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3376515873342286</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1211418854544964</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.03787097660466787</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1757894330419744</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4333201380670685</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.4756283801175314</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.01126167429671062</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.04713095418365785</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2809864748561327</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.2918402793235073</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.1041982185581242</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.01662863427013211</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.8688066208728645</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8321700315565241</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.109437543259968</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7559136654983553</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.2072044610468823</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.861054432545544</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.6527520909928323</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.845538702680335</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3321747492077954</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.073036734782825</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.6843810453146316</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.6054659310734259</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>48,54%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>43,99%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>46,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,71; 99,31</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>19,84; 73,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>24,38; 72,52</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.1874687242671448</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02074110961650021</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.18620799184676</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4647557794224187</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.01231306174993411</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.6882674834622073</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.4195996220040761</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.4470373310695894</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.07675547837426401</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.3156024833864918</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2997543462687625</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.455606390971489</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.1306186381311974</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2074713605652503</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.03773491804709984</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1299224618005624</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2073252500656618</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.378032424374156</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2166692436656633</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.2077364290671465</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1049975506581718</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.1101857318581028</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.1410108083818706</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2319734327760894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5829340534786764</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2757591709714469</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4284129268324741</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.9905037118986468</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2179962865432527</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.095729572196172</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6345423504564996</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.7461937315062495</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2657013447216288</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5361969318021512</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.4932469922157576</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.7199019125767216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
